--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -73,99 +73,93 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>special</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
@@ -181,10 +175,10 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -548,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +553,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -667,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,19 +679,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7294520547945206</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C5">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D5">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3758389261744967</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3604651162790697</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C8">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3376623376623377</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C10">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1067,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1233243967828418</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
@@ -1117,13 +1111,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1137,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1161,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1169,13 +1163,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1187,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1195,13 +1189,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.74375</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1213,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1221,13 +1215,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.74375</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L17">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1239,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1247,13 +1241,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1273,13 +1267,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1291,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1299,13 +1293,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6914893617021277</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1317,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1325,13 +1319,13 @@
         <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1343,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1351,13 +1345,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6057441253263708</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L22">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1369,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>151</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1377,13 +1371,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5852941176470589</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L23">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M23">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1395,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1403,13 +1397,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5559322033898305</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L24">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M24">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1421,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1429,13 +1423,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1447,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1455,13 +1449,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.550561797752809</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1473,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1481,13 +1475,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.54</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1499,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1507,13 +1501,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5188284518828452</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L28">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1525,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1533,25 +1527,25 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.4743589743589743</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
-      </c>
-      <c r="M29">
-        <v>37</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1559,7 +1553,7 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.46875</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L30">
         <v>30</v>
@@ -1577,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1585,13 +1579,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.4461538461538462</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1603,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1611,13 +1605,13 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1629,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1637,13 +1631,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4383561643835616</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1655,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1663,13 +1657,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.1196172248803828</v>
+        <v>0.08165548098434004</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1681,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>368</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1689,13 +1683,13 @@
         <v>51</v>
       </c>
       <c r="K35">
-        <v>0.1177884615384615</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1707,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>367</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1715,25 +1709,25 @@
         <v>52</v>
       </c>
       <c r="K36">
-        <v>0.07941834451901567</v>
+        <v>0.04475308641975308</v>
       </c>
       <c r="L36">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>823</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1741,25 +1735,25 @@
         <v>53</v>
       </c>
       <c r="K37">
-        <v>0.05660377358490566</v>
+        <v>0.04041570438799076</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>850</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1767,25 +1761,25 @@
         <v>54</v>
       </c>
       <c r="K38">
-        <v>0.04615384615384616</v>
+        <v>0.03604868913857678</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>620</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1793,25 +1787,25 @@
         <v>55</v>
       </c>
       <c r="K39">
-        <v>0.03938115330520394</v>
+        <v>0.01936733376371853</v>
       </c>
       <c r="L39">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2049</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1819,77 +1813,25 @@
         <v>56</v>
       </c>
       <c r="K40">
-        <v>0.03695150115473441</v>
+        <v>0.01096491228070175</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41">
-        <v>0.02128345694937117</v>
-      </c>
-      <c r="L41">
-        <v>66</v>
-      </c>
-      <c r="M41">
-        <v>72</v>
-      </c>
-      <c r="N41">
-        <v>0.92</v>
-      </c>
-      <c r="O41">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K42">
-        <v>0.009076682316118936</v>
-      </c>
-      <c r="L42">
-        <v>29</v>
-      </c>
-      <c r="M42">
-        <v>35</v>
-      </c>
-      <c r="N42">
-        <v>0.83</v>
-      </c>
-      <c r="O42">
-        <v>0.17</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>3166</v>
+        <v>3157</v>
       </c>
     </row>
   </sheetData>
